--- a/documents/다머니_데이터 테이블_v1.1.xlsx
+++ b/documents/다머니_데이터 테이블_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="속성 작업" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="보상 아이템 목록" sheetId="6" r:id="rId4"/>
     <sheet name="캐릭터레벨업" sheetId="7" r:id="rId5"/>
     <sheet name="BONUS_LIST" sheetId="9" r:id="rId6"/>
+    <sheet name="대사 목록" sheetId="10" r:id="rId7"/>
+    <sheet name="남은 작업" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="328">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,6 +1126,236 @@
   </si>
   <si>
     <t>( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 다머니 작업 남은 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보너스 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보너스 상품 페이지 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 아이콘 클릭 시, 캐릭터 페이지 나오도록 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 보기 객관식형도 등장하도록 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 나누기 아이콘 및 내부 이미지 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로, 메인화면 새 부분 해상도 개선
+(사이즈가 매우 크게 보임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 링크를 http://gae9.com/ 로 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보너스 상품 상자 아이콘 하단에 텍스트 존재하도록
+(원장님이 꼭! 보너스란 글자가 들어있었음 한다셨었음…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천 sms를 누르면, 문자메시지 보내기 앱으로 이동
+자동 완성 메시지 상태
+       “행동 하나하나가 다 머니! 가입하면 500 캐시!
+        스토어에서 ‘다머니’를 검색해보세요.
+        추천인 : [내 ID]”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push 알림 설정하기 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 id가 실제 id로 나오도록
+보유 캐시가 실제 캐시로 나오도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고보기 클릭 이미지 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 보기 시간이 흐르도록 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 받기/받은 쿠폰 보기 팝업창 내부에 텍스트 등장하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 입력창 상태에서 메인 홈으로 이동하면
+하단 버튼이 위로 올라감.
+메인 홈의 각 요소는 키보드와 무관하게 그 자리에 있어야 할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고액 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 본 광고에 대해, 금액 대신 "완료" 텍스트 등장함과 함께
+회색 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 받기/받은 쿠폰 보기 팝업창 내부의 사용하기 누르면, 다시 받을수 있는 상태로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 시, great 애니메이션 재생하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈의 새 클릭 시, eat 애니메이션 재생하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈의 새 클릭 시, 대화창과 함께 텍스트 등장하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 중에 다시 클릭할 경우, 아무 일도 일어나지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 캐릭터 진화 및 3단계 캐릭터 제작 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 대사 목록으로, 캐릭터 클릭 시 랜덤으로 목록 중, 결정되어 3초간 등장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 모으면, 상품을 받는다나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아가도 되지만, 난 가끔 E버스를 탄다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시 상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 몇 개의 이미지가 설명과 일치하지 않음 (투썸, 메로나)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구를 추천하면 500캐시나 받을수 있대!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 앵무새일까, 참새일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코뿔소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고를 몇번 봤더니 금새 부자가 되는걸?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1498,22 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1422,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,6 +1793,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1712,11 +1981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87705600"/>
-        <c:axId val="87759616"/>
+        <c:axId val="116485632"/>
+        <c:axId val="116727104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87705600"/>
+        <c:axId val="116485632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87759616"/>
+        <c:crossAx val="116727104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1733,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87759616"/>
+        <c:axId val="116727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87705600"/>
+        <c:crossAx val="116485632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,7 +2050,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +2094,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +2138,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +2182,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +2226,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2270,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2314,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2358,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2402,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2446,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2490,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2534,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2578,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2622,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2696,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2740,7 @@
         <xdr:cNvPr id="17" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2784,7 @@
         <xdr:cNvPr id="18" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +3141,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5775,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6420,4 +6689,481 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="33">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="33">
+        <v>3</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="33">
+        <v>4</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="42" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="42" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="73.375" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44">
+        <v>3</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44">
+        <v>4</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44">
+        <v>6</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44">
+        <v>8</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44">
+        <v>9</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44">
+        <v>10</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44">
+        <v>11</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44">
+        <v>12</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44">
+        <v>13</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44">
+        <v>14</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44">
+        <v>15</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44">
+        <v>16</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
+        <v>17</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
+        <v>18</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44">
+        <v>19</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44">
+        <v>20</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44">
+        <v>21</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/다머니_데이터 테이블_v1.1.xlsx
+++ b/documents/다머니_데이터 테이블_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="속성 작업" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="356">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,86 +1002,6 @@
   </si>
   <si>
     <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15일 뒤 공개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던킨도너츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼치킨 박스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리따움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리따움 3천원권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤넬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>립스틱 루즈코코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도미노 피자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포테이토M+콜라1.25L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몽블랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성 반지갑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>belif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수분 크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24인치 모니터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SONY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이스테이션 슬림 1TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17FW 캐비어 백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니 쿠퍼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1358,12 +1278,224 @@
     <t>광고를 몇번 봤더니 금새 부자가 되는걸?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>맥심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouUs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙그레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥심 모카커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜자 돈까스 치킨 도시락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 관람권 2매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌링클 콜라 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투썸 플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트골드 320T/커피/커피믹스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트로베리 생크림케이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬진강 메뚜기 쌀 20KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>설화수 자음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="함초롬바탕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종 기초세트</t>
+    </r>
+  </si>
+  <si>
+    <t>무선이어폰 슈피겐 레가토 아크</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈피겐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자 전자레인지 20l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스 남성 패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스 여성 패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">핸디스틱 무선 청소기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG게이밍노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자 드럼 세탁기 14KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선 청소기 V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시 8+ 64G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sk2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK-II LXP 풀 라인업 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이폰 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIOS 양문형 냉장고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨루쏘 토트 백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 곡면형 65인치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 미니 탑 핸들 백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 블랙 캐비어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUCCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 스토닉 자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기아자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,6 +1648,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="함초롬바탕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1670,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1791,16 +1937,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1814,6 +1954,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1981,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116485632"/>
-        <c:axId val="116727104"/>
+        <c:axId val="84119040"/>
+        <c:axId val="81355328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116485632"/>
+        <c:axId val="84119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116727104"/>
+        <c:crossAx val="81355328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116727104"/>
+        <c:axId val="81355328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116485632"/>
+        <c:crossAx val="84119040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2050,7 +2199,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2243,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2287,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2331,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2375,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2419,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2463,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2507,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2551,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2595,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2639,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2683,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2727,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2771,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2845,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2889,7 @@
         <xdr:cNvPr id="17" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2933,7 @@
         <xdr:cNvPr id="18" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3155,7 +3304,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
@@ -3163,18 +3312,18 @@
     <col min="7" max="7" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="26.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="11.25" customHeight="1"/>
+    <row r="4" spans="2:7" s="4" customFormat="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -3214,7 +3363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +3403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="57" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3274,7 +3423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -3294,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3314,13 +3463,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" s="4" customFormat="1" ht="13.5"/>
+    <row r="13" spans="2:7" s="4" customFormat="1">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -3340,7 +3489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -3360,7 +3509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
@@ -3420,7 +3569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
@@ -3440,7 +3589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" s="4" customFormat="1" ht="13.5">
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
@@ -3460,7 +3609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" s="4" customFormat="1" ht="13.5">
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
@@ -3480,13 +3629,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" s="4" customFormat="1" ht="13.5"/>
+    <row r="23" spans="2:7" s="4" customFormat="1">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -3506,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
@@ -3526,7 +3675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>170</v>
       </c>
@@ -3546,7 +3695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -3566,7 +3715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
@@ -3586,7 +3735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
@@ -3606,7 +3755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
@@ -3626,7 +3775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>60</v>
       </c>
@@ -3661,7 +3810,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -3677,28 +3826,28 @@
     <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="6.75" customHeight="1">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -3731,7 +3880,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="17.25" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -3801,7 +3950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="17.25" thickTop="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -3834,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -3867,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -3900,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -3933,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -3966,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="24">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -3999,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="26"/>
       <c r="C16" s="27">
         <v>6</v>
@@ -4032,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="26"/>
       <c r="C17" s="27">
         <v>7</v>
@@ -4065,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="26"/>
       <c r="C18" s="27">
         <v>8</v>
@@ -4098,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" s="26"/>
       <c r="C19" s="27">
         <v>9</v>
@@ -4131,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" s="26"/>
       <c r="C20" s="27">
         <v>10</v>
@@ -4164,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" s="26"/>
       <c r="C21" s="27">
         <v>11</v>
@@ -4197,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
         <v>114</v>
@@ -4253,7 +4402,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -4267,28 +4416,28 @@
     <col min="10" max="10" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="6.75" customHeight="1">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -4315,7 +4464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -4344,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -4373,7 +4522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="17.25" thickTop="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -4400,7 +4549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -4427,7 +4576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -4454,7 +4603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -4481,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -4508,7 +4657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -4535,7 +4684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="27">
         <v>6</v>
@@ -4562,7 +4711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="27">
         <v>7</v>
@@ -4589,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="27">
         <v>8</v>
@@ -4616,7 +4765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="26"/>
       <c r="C19" s="27">
         <v>9</v>
@@ -4643,7 +4792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="26"/>
       <c r="C20" s="27">
         <v>10</v>
@@ -4670,7 +4819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="26"/>
       <c r="C21" s="27">
         <v>11</v>
@@ -4697,7 +4846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="26"/>
       <c r="C22" s="27">
         <v>12</v>
@@ -4724,7 +4873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="26"/>
       <c r="C23" s="27">
         <v>13</v>
@@ -4751,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="26"/>
       <c r="C24" s="27">
         <v>14</v>
@@ -4778,7 +4927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="26"/>
       <c r="C25" s="27">
         <v>15</v>
@@ -4805,7 +4954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="26"/>
       <c r="C26" s="27">
         <v>16</v>
@@ -4832,7 +4981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
         <v>114</v>
@@ -4872,7 +5021,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -4881,12 +5030,12 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="20.25">
       <c r="B2" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9">
       <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +5061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="49.5" customHeight="1">
       <c r="B5" s="33">
         <v>1000</v>
       </c>
@@ -4934,7 +5083,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="49.5" customHeight="1">
       <c r="B6" s="33">
         <v>1001</v>
       </c>
@@ -4956,7 +5105,7 @@
       </c>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="49.5" customHeight="1">
       <c r="B7" s="33">
         <v>1002</v>
       </c>
@@ -4978,7 +5127,7 @@
       </c>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="49.5" customHeight="1">
       <c r="B8" s="33">
         <v>1003</v>
       </c>
@@ -5000,7 +5149,7 @@
       </c>
       <c r="I8" s="34"/>
     </row>
-    <row r="9" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="49.5" customHeight="1">
       <c r="B9" s="33">
         <v>1004</v>
       </c>
@@ -5022,7 +5171,7 @@
       </c>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="49.5" customHeight="1">
       <c r="B10" s="33">
         <v>1005</v>
       </c>
@@ -5044,7 +5193,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="49.5" customHeight="1">
       <c r="B11" s="33">
         <v>1006</v>
       </c>
@@ -5066,7 +5215,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="49.5" customHeight="1">
       <c r="B12" s="33">
         <v>1007</v>
       </c>
@@ -5088,7 +5237,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="49.5" customHeight="1">
       <c r="B13" s="33">
         <v>1008</v>
       </c>
@@ -5110,7 +5259,7 @@
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="49.5" customHeight="1">
       <c r="B14" s="33">
         <v>1009</v>
       </c>
@@ -5132,7 +5281,7 @@
       </c>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="49.5" customHeight="1">
       <c r="B15" s="33">
         <v>2001</v>
       </c>
@@ -5154,7 +5303,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="49.5" customHeight="1">
       <c r="B16" s="33">
         <v>2002</v>
       </c>
@@ -5176,7 +5325,7 @@
       </c>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="49.5" customHeight="1">
       <c r="B17" s="33">
         <v>2003</v>
       </c>
@@ -5198,7 +5347,7 @@
       </c>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="49.5" customHeight="1">
       <c r="B18" s="33">
         <v>2004</v>
       </c>
@@ -5220,7 +5369,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="49.5" customHeight="1">
       <c r="B19" s="33">
         <v>3001</v>
       </c>
@@ -5242,7 +5391,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="49.5" customHeight="1">
       <c r="B20" s="33">
         <v>3002</v>
       </c>
@@ -5264,7 +5413,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="49.5" customHeight="1">
       <c r="B21" s="33">
         <v>3003</v>
       </c>
@@ -5301,7 +5450,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -5313,22 +5462,22 @@
     <col min="12" max="14" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="20.25">
       <c r="B2" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="36" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="32" t="s">
         <v>175</v>
       </c>
@@ -5342,7 +5491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="35">
         <v>1</v>
       </c>
@@ -5357,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="35">
         <v>2</v>
       </c>
@@ -5366,7 +5515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="35">
         <v>3</v>
       </c>
@@ -5375,7 +5524,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="35">
         <v>4</v>
       </c>
@@ -5384,7 +5533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="35">
         <v>5</v>
       </c>
@@ -5393,7 +5542,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="35">
         <v>6</v>
       </c>
@@ -5402,7 +5551,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="35">
         <v>7</v>
       </c>
@@ -5411,7 +5560,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="35">
         <v>8</v>
       </c>
@@ -5420,7 +5569,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="35">
         <v>9</v>
       </c>
@@ -5429,7 +5578,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" s="35">
         <v>10</v>
       </c>
@@ -5438,7 +5587,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" s="35">
         <v>11</v>
       </c>
@@ -5447,7 +5596,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" s="35">
         <v>12</v>
       </c>
@@ -5456,7 +5605,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="35">
         <v>13</v>
       </c>
@@ -5465,7 +5614,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" s="35">
         <v>14</v>
       </c>
@@ -5474,7 +5623,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" s="35">
         <v>15</v>
       </c>
@@ -5483,7 +5632,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="35">
         <v>16</v>
       </c>
@@ -5492,7 +5641,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="35">
         <v>17</v>
       </c>
@@ -5501,7 +5650,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="35">
         <v>18</v>
       </c>
@@ -5510,7 +5659,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="35">
         <v>19</v>
       </c>
@@ -5519,7 +5668,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" s="35">
         <v>20</v>
       </c>
@@ -5528,7 +5677,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" s="35">
         <v>21</v>
       </c>
@@ -5537,7 +5686,7 @@
         <v>7252</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29" s="35">
         <v>22</v>
       </c>
@@ -5546,7 +5695,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30" s="35">
         <v>23</v>
       </c>
@@ -5555,7 +5704,7 @@
         <v>9338</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31" s="35">
         <v>24</v>
       </c>
@@ -5564,7 +5713,7 @@
         <v>10520</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
       <c r="B32" s="35">
         <v>25</v>
       </c>
@@ -5573,7 +5722,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14">
       <c r="B33" s="35">
         <v>26</v>
       </c>
@@ -5582,7 +5731,7 @@
         <v>13182</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14">
       <c r="B34" s="35">
         <v>27</v>
       </c>
@@ -5591,7 +5740,7 @@
         <v>14670</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14">
       <c r="B35" s="35">
         <v>28</v>
       </c>
@@ -5600,7 +5749,7 @@
         <v>16268</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14">
       <c r="B36" s="35">
         <v>29</v>
       </c>
@@ -5609,7 +5758,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14">
       <c r="B37" s="35">
         <v>30</v>
       </c>
@@ -5618,29 +5767,29 @@
         <v>19810</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14">
       <c r="B40" s="36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F41" s="40" t="s">
+    <row r="41" spans="2:14">
+      <c r="F41" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40" t="s">
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" s="39" t="s">
         <v>50</v>
       </c>
@@ -5681,7 +5830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14">
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
@@ -5722,7 +5871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14">
       <c r="B44" s="35" t="s">
         <v>177</v>
       </c>
@@ -5763,7 +5912,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14">
       <c r="B45" s="35" t="s">
         <v>219</v>
       </c>
@@ -5804,7 +5953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14">
       <c r="B46" s="35" t="s">
         <v>220</v>
       </c>
@@ -5845,184 +5994,184 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11">
       <c r="B49" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11">
       <c r="B50" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11">
       <c r="B51" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11">
       <c r="B55" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11">
       <c r="B57" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11">
       <c r="B58" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11">
       <c r="B60" s="36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11">
       <c r="B61" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11">
       <c r="B62" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11">
       <c r="B63" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
         <v>209</v>
       </c>
@@ -6042,13 +6191,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -6065,28 +6214,28 @@
     <col min="13" max="13" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="6.75" customHeight="1">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -6122,7 +6271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -6160,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="17.25" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -6198,7 +6347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="17.25" thickTop="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -6207,10 +6356,10 @@
         <v>234</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -6225,16 +6374,16 @@
         <v>86</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -6243,10 +6392,10 @@
         <v>234</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
@@ -6261,14 +6410,14 @@
         <v>86</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -6277,13 +6426,13 @@
         <v>234</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="G12" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>84</v>
@@ -6295,14 +6444,14 @@
         <v>86</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -6311,13 +6460,13 @@
         <v>234</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="G13" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>84</v>
@@ -6329,14 +6478,14 @@
         <v>86</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -6345,13 +6494,13 @@
         <v>234</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="G14" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>84</v>
@@ -6363,14 +6512,14 @@
         <v>86</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -6379,13 +6528,13 @@
         <v>234</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="G15" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>84</v>
@@ -6397,14 +6546,14 @@
         <v>86</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <v>6</v>
@@ -6413,13 +6562,13 @@
         <v>234</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="G16" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>84</v>
@@ -6431,14 +6580,14 @@
         <v>86</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="26"/>
       <c r="C17" s="22">
         <v>7</v>
@@ -6447,13 +6596,13 @@
         <v>234</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="G17" s="27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>84</v>
@@ -6465,14 +6614,14 @@
         <v>86</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="26"/>
       <c r="C18" s="22">
         <v>8</v>
@@ -6481,13 +6630,13 @@
         <v>234</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="G18" s="27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>84</v>
@@ -6499,16 +6648,14 @@
         <v>86</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="26"/>
       <c r="C19" s="22">
         <v>9</v>
@@ -6517,13 +6664,13 @@
         <v>234</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="G19" s="27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>84</v>
@@ -6535,152 +6682,774 @@
         <v>86</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="C20" s="22">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G20" s="27">
+        <v>7</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="C21" s="22">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" s="27">
+        <v>8</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="C22" s="22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="27">
+        <v>8</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13">
       <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="22">
+        <v>13</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="27">
+        <v>9</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="C24" s="22">
+        <v>14</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="27">
+        <v>10</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="C25" s="22">
+        <v>15</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="30">
+        <v>10</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="C26" s="22">
+        <v>16</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" s="27">
+        <v>11</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="C27" s="22">
+        <v>17</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="27">
+        <v>12</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="22">
+        <v>18</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="27">
+        <v>13</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="26"/>
+      <c r="C29" s="22">
+        <v>19</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G29" s="27">
+        <v>14</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="26"/>
+      <c r="C30" s="22">
+        <v>20</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" s="27">
+        <v>15</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="22">
+        <v>0</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="26"/>
+      <c r="C31" s="22">
+        <v>21</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="27">
+        <v>15</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="26"/>
+      <c r="C32" s="22">
+        <v>22</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="27">
+        <v>16</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="26"/>
+      <c r="C33" s="22">
+        <v>23</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G33" s="27">
+        <v>16</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" s="23"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="26"/>
+      <c r="C34" s="22">
+        <v>24</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="G34" s="27">
+        <v>16</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="26"/>
+      <c r="C35" s="22">
+        <v>25</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G35" s="27">
+        <v>17</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="26"/>
+      <c r="C36" s="22">
+        <v>26</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="27">
+        <v>17</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="26"/>
+      <c r="C37" s="22">
+        <v>27</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="27">
+        <v>18</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="22">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="26"/>
+      <c r="C38" s="22">
+        <v>28</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" s="27">
+        <v>19</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="22">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="26"/>
+      <c r="C39" s="22">
+        <v>29</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="27">
+        <v>20</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="M39" s="23"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27" t="s">
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27" t="s">
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6699,96 +7468,96 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="39" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="47" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="33">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="47"/>
       <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="47"/>
       <c r="C10" s="33">
         <v>3</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="47"/>
       <c r="C11" s="33">
         <v>4</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="47"/>
       <c r="C12" s="33">
         <v>5</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="33" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="33" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -6806,356 +7575,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="42" customWidth="1"/>
-    <col min="3" max="4" width="7.25" style="42" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="73.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="41" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="73.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:6" ht="26.25">
+      <c r="B2" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="47"/>
+      <c r="C6" s="42">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="47"/>
+      <c r="C7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="47"/>
+      <c r="C8" s="42">
+        <v>4</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27">
+      <c r="B9" s="47"/>
+      <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="47"/>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="47"/>
+      <c r="C11" s="42">
+        <v>7</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="27">
+      <c r="B12" s="47"/>
+      <c r="C12" s="42">
+        <v>8</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+    <row r="13" spans="2:6" ht="67.5">
+      <c r="B13" s="47"/>
+      <c r="C13" s="42">
+        <v>9</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="F13" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="47"/>
+      <c r="C14" s="42">
+        <v>10</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F14" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="32" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="27">
+      <c r="B15" s="47"/>
+      <c r="C15" s="42">
+        <v>11</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="47"/>
+      <c r="C16" s="42">
+        <v>12</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="44">
-        <v>1</v>
-      </c>
-      <c r="D5" s="45" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="47"/>
+      <c r="C17" s="42">
+        <v>13</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="44" t="s">
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="47"/>
+      <c r="C18" s="42">
+        <v>14</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F18" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44">
-        <v>2</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="44" t="s">
+    <row r="19" spans="2:6" ht="40.5">
+      <c r="B19" s="47"/>
+      <c r="C19" s="42">
+        <v>15</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27">
+      <c r="B20" s="47"/>
+      <c r="C20" s="42">
+        <v>16</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="47"/>
+      <c r="C21" s="42">
+        <v>17</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="47"/>
+      <c r="C22" s="42">
+        <v>18</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F22" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="47"/>
+      <c r="C23" s="42">
+        <v>19</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44">
-        <v>3</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44">
-        <v>4</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44">
-        <v>5</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="E23" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44">
-        <v>6</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44">
-        <v>7</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="44" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="47"/>
+      <c r="C24" s="42">
+        <v>20</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44">
-        <v>8</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44">
-        <v>9</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44">
-        <v>10</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44">
-        <v>11</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44">
-        <v>12</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44">
-        <v>13</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="44" t="s">
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="47"/>
+      <c r="C25" s="42">
+        <v>21</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44">
-        <v>14</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="F25" s="42" t="s">
         <v>301</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44">
-        <v>15</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="44">
-        <v>16</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
-        <v>17</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44">
-        <v>18</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44">
-        <v>19</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44">
-        <v>20</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44">
-        <v>21</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/documents/다머니_데이터 테이블_v1.1.xlsx
+++ b/documents/다머니_데이터 테이블_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="속성 작업" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="328">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,6 +1002,86 @@
   </si>
   <si>
     <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15일 뒤 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던킨도너츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼치킨 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리따움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리따움 3천원권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립스틱 루즈코코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노 피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포테이토M+콜라1.25L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽블랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반지갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수분 크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24인치 모니터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이스테이션 슬림 1TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17FW 캐비어 백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 쿠퍼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1278,224 +1358,12 @@
     <t>광고를 몇번 봤더니 금새 부자가 되는걸?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>맥심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YouUs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙그레</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥심 모카커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜자 돈까스 치킨 도시락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가박스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 관람권 2매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BHC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿌링클 콜라 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투썸 플레이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화이트골드 320T/커피/커피믹스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트로베리 생크림케이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농협</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬진강 메뚜기 쌀 20KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>설화수 자음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF111111"/>
-        <rFont val="함초롬바탕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF111111"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종 기초세트</t>
-    </r>
-  </si>
-  <si>
-    <t>무선이어폰 슈피겐 레가토 아크</t>
-  </si>
-  <si>
-    <t>아모레퍼시픽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈피겐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자 전자레인지 20l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스 남성 패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스 여성 패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">핸디스틱 무선 청소기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성 노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG게이밍노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자 드럼 세탁기 14KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무선 청소기 V8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤럭시 8+ 64G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sk2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK-II LXP 풀 라인업 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이폰 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIOS 양문형 냉장고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라벨루쏘 토트 백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TV 곡면형 65인치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 미니 탑 핸들 백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식 블랙 캐비어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUCCI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017 스토닉 자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나 우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,20 +1516,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="함초롬바탕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1816,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1937,10 +1791,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,15 +1814,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2130,11 +1981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84119040"/>
-        <c:axId val="81355328"/>
+        <c:axId val="116485632"/>
+        <c:axId val="116727104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84119040"/>
+        <c:axId val="116485632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81355328"/>
+        <c:crossAx val="116727104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2151,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81355328"/>
+        <c:axId val="116727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84119040"/>
+        <c:crossAx val="116485632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,7 +2050,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2094,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2138,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2182,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2226,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2270,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2314,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2358,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2402,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2446,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2490,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2534,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2578,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2622,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2696,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2740,7 @@
         <xdr:cNvPr id="17" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2784,7 @@
         <xdr:cNvPr id="18" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3141,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3304,7 +3155,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
@@ -3312,18 +3163,18 @@
     <col min="7" max="7" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25">
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="11.25" customHeight="1"/>
-    <row r="4" spans="2:7" s="4" customFormat="1">
+    <row r="3" spans="2:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -3363,7 +3214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row r="7" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -3383,7 +3234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row r="8" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -3403,7 +3254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3423,7 +3274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -3443,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row r="11" spans="2:7" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3463,13 +3314,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="4" customFormat="1" ht="13.5"/>
-    <row r="13" spans="2:7" s="4" customFormat="1">
+    <row r="12" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="15" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -3549,7 +3400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
@@ -3569,7 +3420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
@@ -3589,7 +3440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="4" customFormat="1" ht="13.5">
+    <row r="20" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
@@ -3609,7 +3460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="4" customFormat="1" ht="13.5">
+    <row r="21" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
@@ -3629,13 +3480,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="4" customFormat="1" ht="13.5"/>
-    <row r="23" spans="2:7" s="4" customFormat="1">
+    <row r="22" spans="2:7" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="24" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
@@ -3655,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
@@ -3675,7 +3526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1">
+    <row r="26" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>170</v>
       </c>
@@ -3695,7 +3546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1">
+    <row r="27" spans="2:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>169</v>
       </c>
@@ -3715,7 +3566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="28" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
@@ -3735,7 +3586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="29" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
@@ -3755,7 +3606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
@@ -3775,7 +3626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="2:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>60</v>
       </c>
@@ -3810,7 +3661,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -3826,28 +3677,28 @@
     <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="31.5">
+    <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="6.75" customHeight="1">
+    <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -3880,7 +3731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" thickBot="1">
+    <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" thickTop="1">
+    <row r="10" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -3983,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -4016,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -4049,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -4082,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -4115,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="24">
+    <row r="15" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -4148,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="27">
         <v>6</v>
@@ -4181,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="27">
         <v>7</v>
@@ -4214,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="27">
         <v>8</v>
@@ -4247,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="27">
         <v>9</v>
@@ -4280,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="27">
         <v>10</v>
@@ -4313,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="27">
         <v>11</v>
@@ -4346,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
         <v>114</v>
@@ -4402,7 +4253,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -4416,28 +4267,28 @@
     <col min="10" max="10" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="31.5">
+    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="6.75" customHeight="1">
+    <row r="3" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -4464,7 +4315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -4493,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +4373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17.25" thickTop="1">
+    <row r="10" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -4549,7 +4400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -4576,7 +4427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -4603,7 +4454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -4630,7 +4481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -4657,7 +4508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -4684,7 +4535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="27">
         <v>6</v>
@@ -4711,7 +4562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="27">
         <v>7</v>
@@ -4738,7 +4589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="27">
         <v>8</v>
@@ -4765,7 +4616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="27">
         <v>9</v>
@@ -4792,7 +4643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="27">
         <v>10</v>
@@ -4819,7 +4670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
       <c r="C21" s="27">
         <v>11</v>
@@ -4846,7 +4697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="27">
         <v>12</v>
@@ -4873,7 +4724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="27">
         <v>13</v>
@@ -4900,7 +4751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="27">
         <v>14</v>
@@ -4927,7 +4778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
       <c r="C25" s="27">
         <v>15</v>
@@ -4954,7 +4805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="27">
         <v>16</v>
@@ -4981,7 +4832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
         <v>114</v>
@@ -5021,7 +4872,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -5030,12 +4881,12 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25">
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
@@ -5061,7 +4912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="49.5" customHeight="1">
+    <row r="5" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33">
         <v>1000</v>
       </c>
@@ -5083,7 +4934,7 @@
       </c>
       <c r="I5" s="34"/>
     </row>
-    <row r="6" spans="2:9" ht="49.5" customHeight="1">
+    <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33">
         <v>1001</v>
       </c>
@@ -5105,7 +4956,7 @@
       </c>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="2:9" ht="49.5" customHeight="1">
+    <row r="7" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>1002</v>
       </c>
@@ -5127,7 +4978,7 @@
       </c>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="2:9" ht="49.5" customHeight="1">
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>1003</v>
       </c>
@@ -5149,7 +5000,7 @@
       </c>
       <c r="I8" s="34"/>
     </row>
-    <row r="9" spans="2:9" ht="49.5" customHeight="1">
+    <row r="9" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>1004</v>
       </c>
@@ -5171,7 +5022,7 @@
       </c>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="2:9" ht="49.5" customHeight="1">
+    <row r="10" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>1005</v>
       </c>
@@ -5193,7 +5044,7 @@
       </c>
       <c r="I10" s="34"/>
     </row>
-    <row r="11" spans="2:9" ht="49.5" customHeight="1">
+    <row r="11" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>1006</v>
       </c>
@@ -5215,7 +5066,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="2:9" ht="49.5" customHeight="1">
+    <row r="12" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="33">
         <v>1007</v>
       </c>
@@ -5237,7 +5088,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="2:9" ht="49.5" customHeight="1">
+    <row r="13" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33">
         <v>1008</v>
       </c>
@@ -5259,7 +5110,7 @@
       </c>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="2:9" ht="49.5" customHeight="1">
+    <row r="14" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33">
         <v>1009</v>
       </c>
@@ -5281,7 +5132,7 @@
       </c>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="2:9" ht="49.5" customHeight="1">
+    <row r="15" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33">
         <v>2001</v>
       </c>
@@ -5303,7 +5154,7 @@
       </c>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="2:9" ht="49.5" customHeight="1">
+    <row r="16" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="33">
         <v>2002</v>
       </c>
@@ -5325,7 +5176,7 @@
       </c>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="2:9" ht="49.5" customHeight="1">
+    <row r="17" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>2003</v>
       </c>
@@ -5347,7 +5198,7 @@
       </c>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="2:9" ht="49.5" customHeight="1">
+    <row r="18" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33">
         <v>2004</v>
       </c>
@@ -5369,7 +5220,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="2:9" ht="49.5" customHeight="1">
+    <row r="19" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33">
         <v>3001</v>
       </c>
@@ -5391,7 +5242,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="2:9" ht="49.5" customHeight="1">
+    <row r="20" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="33">
         <v>3002</v>
       </c>
@@ -5413,7 +5264,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="2:9" ht="49.5" customHeight="1">
+    <row r="21" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33">
         <v>3003</v>
       </c>
@@ -5450,7 +5301,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -5462,22 +5313,22 @@
     <col min="12" max="14" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.25">
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>175</v>
       </c>
@@ -5491,7 +5342,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="35">
         <v>1</v>
       </c>
@@ -5506,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="35">
         <v>2</v>
       </c>
@@ -5515,7 +5366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>3</v>
       </c>
@@ -5524,7 +5375,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="35">
         <v>4</v>
       </c>
@@ -5533,7 +5384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="35">
         <v>5</v>
       </c>
@@ -5542,7 +5393,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="35">
         <v>6</v>
       </c>
@@ -5551,7 +5402,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="35">
         <v>7</v>
       </c>
@@ -5560,7 +5411,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="35">
         <v>8</v>
       </c>
@@ -5569,7 +5420,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="35">
         <v>9</v>
       </c>
@@ -5578,7 +5429,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="35">
         <v>10</v>
       </c>
@@ -5587,7 +5438,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="35">
         <v>11</v>
       </c>
@@ -5596,7 +5447,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="35">
         <v>12</v>
       </c>
@@ -5605,7 +5456,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="35">
         <v>13</v>
       </c>
@@ -5614,7 +5465,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="35">
         <v>14</v>
       </c>
@@ -5623,7 +5474,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="35">
         <v>15</v>
       </c>
@@ -5632,7 +5483,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="35">
         <v>16</v>
       </c>
@@ -5641,7 +5492,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="35">
         <v>17</v>
       </c>
@@ -5650,7 +5501,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="35">
         <v>18</v>
       </c>
@@ -5659,7 +5510,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="35">
         <v>19</v>
       </c>
@@ -5668,7 +5519,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="35">
         <v>20</v>
       </c>
@@ -5677,7 +5528,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="35">
         <v>21</v>
       </c>
@@ -5686,7 +5537,7 @@
         <v>7252</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="35">
         <v>22</v>
       </c>
@@ -5695,7 +5546,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="35">
         <v>23</v>
       </c>
@@ -5704,7 +5555,7 @@
         <v>9338</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="35">
         <v>24</v>
       </c>
@@ -5713,7 +5564,7 @@
         <v>10520</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="35">
         <v>25</v>
       </c>
@@ -5722,7 +5573,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="35">
         <v>26</v>
       </c>
@@ -5731,7 +5582,7 @@
         <v>13182</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="35">
         <v>27</v>
       </c>
@@ -5740,7 +5591,7 @@
         <v>14670</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="35">
         <v>28</v>
       </c>
@@ -5749,7 +5600,7 @@
         <v>16268</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="35">
         <v>29</v>
       </c>
@@ -5758,7 +5609,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="35">
         <v>30</v>
       </c>
@@ -5767,29 +5618,29 @@
         <v>19810</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
-      <c r="F41" s="46" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F41" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46" t="s">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46" t="s">
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
         <v>50</v>
       </c>
@@ -5830,7 +5681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
@@ -5871,7 +5722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="35" t="s">
         <v>177</v>
       </c>
@@ -5912,7 +5763,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="35" t="s">
         <v>219</v>
       </c>
@@ -5953,7 +5804,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>220</v>
       </c>
@@ -5994,184 +5845,184 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>215</v>
       </c>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>209</v>
       </c>
@@ -6191,13 +6042,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M44"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -6214,28 +6065,28 @@
     <col min="13" max="13" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31.5">
+    <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="6.75" customHeight="1">
+    <row r="3" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -6271,7 +6122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="17.25" thickBot="1">
+    <row r="9" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -6347,7 +6198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.25" thickTop="1">
+    <row r="10" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -6356,10 +6207,10 @@
         <v>234</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -6374,16 +6225,16 @@
         <v>86</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -6392,10 +6243,10 @@
         <v>234</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
@@ -6410,14 +6261,14 @@
         <v>86</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -6426,13 +6277,13 @@
         <v>234</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="G12" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>84</v>
@@ -6444,14 +6295,14 @@
         <v>86</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -6460,13 +6311,13 @@
         <v>234</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="G13" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>84</v>
@@ -6478,14 +6329,14 @@
         <v>86</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -6494,13 +6345,13 @@
         <v>234</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="G14" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>84</v>
@@ -6512,14 +6363,14 @@
         <v>86</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -6528,13 +6379,13 @@
         <v>234</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="G15" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>84</v>
@@ -6546,14 +6397,14 @@
         <v>86</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <v>6</v>
@@ -6562,13 +6413,13 @@
         <v>234</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="G16" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>84</v>
@@ -6580,14 +6431,14 @@
         <v>86</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="22">
         <v>7</v>
@@ -6596,13 +6447,13 @@
         <v>234</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="G17" s="27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>84</v>
@@ -6614,14 +6465,14 @@
         <v>86</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="22">
         <v>8</v>
@@ -6630,13 +6481,13 @@
         <v>234</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="G18" s="27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>84</v>
@@ -6648,14 +6499,16 @@
         <v>86</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="2:13">
+        <v>272</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="22">
         <v>9</v>
@@ -6664,13 +6517,13 @@
         <v>234</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="G19" s="27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>84</v>
@@ -6682,774 +6535,152 @@
         <v>86</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="2:13">
+        <v>272</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
-      <c r="C20" s="22">
-        <v>10</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="27">
-        <v>7</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="27">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
-      <c r="C21" s="22">
-        <v>11</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="G21" s="27">
-        <v>8</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="23"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
-      <c r="C22" s="22">
-        <v>12</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="27">
-        <v>8</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
-      <c r="C23" s="22">
-        <v>13</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="G23" s="27">
-        <v>9</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
-      <c r="C24" s="22">
-        <v>14</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="G24" s="27">
-        <v>10</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="23"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="C25" s="22">
-        <v>15</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="30">
-        <v>10</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
-      <c r="C26" s="22">
-        <v>16</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="G26" s="27">
-        <v>11</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
-      <c r="C27" s="22">
-        <v>17</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="G27" s="27">
-        <v>12</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>252</v>
-      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
-      <c r="C28" s="22">
-        <v>18</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>336</v>
-      </c>
+      <c r="C28" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="27"/>
       <c r="F28" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G28" s="27">
-        <v>13</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="26"/>
-      <c r="C29" s="22">
-        <v>19</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="27">
-        <v>14</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="26"/>
-      <c r="C30" s="22">
-        <v>20</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G30" s="27">
-        <v>15</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="26"/>
-      <c r="C31" s="22">
-        <v>21</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="G31" s="27">
-        <v>15</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="26"/>
-      <c r="C32" s="22">
-        <v>22</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G32" s="27">
-        <v>16</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="26"/>
-      <c r="C33" s="22">
-        <v>23</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G33" s="27">
-        <v>16</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="26"/>
-      <c r="C34" s="22">
-        <v>24</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G34" s="27">
-        <v>16</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="26"/>
-      <c r="C35" s="22">
-        <v>25</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="G35" s="27">
-        <v>17</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="26"/>
-      <c r="C36" s="22">
-        <v>26</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="G36" s="27">
-        <v>17</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="26"/>
-      <c r="C37" s="22">
-        <v>27</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="G37" s="27">
-        <v>18</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="22">
-        <v>0</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="26"/>
-      <c r="C38" s="22">
-        <v>28</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="G38" s="27">
-        <v>19</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="26"/>
-      <c r="C39" s="22">
-        <v>29</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="G39" s="27">
-        <v>20</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="I28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27" t="s">
+      <c r="J28" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27" t="s">
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7468,96 +6699,96 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="31.5">
+    <row r="2" spans="2:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="47" t="s">
-        <v>294</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>314</v>
       </c>
       <c r="C8" s="33">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="47"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
       <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="47"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
       <c r="C10" s="33">
         <v>3</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="47"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
       <c r="C11" s="33">
         <v>4</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="47"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
       <c r="C12" s="33">
         <v>5</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -7575,356 +6806,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="41" customWidth="1"/>
-    <col min="3" max="4" width="7.25" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="73.375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="42" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="42" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="73.375" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25">
-      <c r="B2" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="42">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="47"/>
-      <c r="C6" s="42">
+      <c r="D5" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="47"/>
-      <c r="C7" s="42">
+      <c r="F6" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44">
         <v>3</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="47"/>
-      <c r="C8" s="42">
+      <c r="D7" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="27">
-      <c r="B9" s="47"/>
-      <c r="C9" s="42">
+      <c r="D8" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
         <v>5</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="47"/>
-      <c r="C10" s="42">
+      <c r="D9" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44">
         <v>6</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44">
+        <v>8</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44">
+        <v>9</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="F10" s="45" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44">
+        <v>10</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="47"/>
-      <c r="C11" s="42">
-        <v>7</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="27">
-      <c r="B12" s="47"/>
-      <c r="C12" s="42">
-        <v>8</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="67.5">
-      <c r="B13" s="47"/>
-      <c r="C13" s="42">
-        <v>9</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="47"/>
-      <c r="C14" s="42">
-        <v>10</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="27">
-      <c r="B15" s="47"/>
-      <c r="C15" s="42">
+      <c r="F14" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44">
         <v>11</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="47"/>
-      <c r="C16" s="42">
+      <c r="D15" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44">
         <v>12</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="47"/>
-      <c r="C17" s="42">
+      <c r="D16" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44">
         <v>13</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="47"/>
-      <c r="C18" s="42">
+      <c r="D17" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44">
         <v>14</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="40.5">
-      <c r="B19" s="47"/>
-      <c r="C19" s="42">
+      <c r="D18" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44">
         <v>15</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27">
-      <c r="B20" s="47"/>
-      <c r="C20" s="42">
+      <c r="D19" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44">
         <v>16</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="47"/>
-      <c r="C21" s="42">
+      <c r="D20" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <v>17</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="47"/>
-      <c r="C22" s="42">
+      <c r="D21" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <v>18</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="D22" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="47"/>
-      <c r="C23" s="42">
+      <c r="F22" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44">
         <v>19</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="D23" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="47"/>
-      <c r="C24" s="42">
+      <c r="F23" s="44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44">
         <v>20</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="47"/>
-      <c r="C25" s="42">
+      <c r="F24" s="44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44">
         <v>21</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>301</v>
+      <c r="D25" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
